--- a/Power Distribution Board BOM.xlsx
+++ b/Power Distribution Board BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phaedra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phaed\Desktop\github\Power-Distribution-Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFF3C55-E546-45FC-905F-CB6736F7792C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1E865-779D-47EA-A061-EC778E3A3CE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8225FEA-9D76-42BB-90F9-F9FA3F503F2B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Bolt down</t>
   </si>
@@ -93,30 +90,15 @@
     <t>R2</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ECA-1VM101I/P10418TB-ND/268503</t>
-  </si>
-  <si>
-    <t>6.3 mm</t>
-  </si>
-  <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>ECA-1VM101I</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
     <t>1000 uF Electrolytic Capacitor</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/nichicon/UFW1H010MDD1TD/493-11001-3-ND/4317512</t>
-  </si>
-  <si>
-    <t>UFW1H010MDD1TD</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -340,6 +322,18 @@
   </si>
   <si>
     <t>ERJ-PB6D4702V</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nichicon/UPX1V010MPD1TD/493-11906-1-ND/4320148</t>
+  </si>
+  <si>
+    <t>UPX1V010MPD1TD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ECA-1HM101/P5182-ND/245041</t>
+  </si>
+  <si>
+    <t>8mm</t>
   </si>
 </sst>
 </file>
@@ -768,7 +762,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +810,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,19 +818,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,25 +838,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,19 +870,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -914,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,25 +916,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,25 +942,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,25 +968,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,25 +994,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,25 +1020,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,25 +1046,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1104,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -1113,16 +1107,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,25 +1124,25 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,33 +1150,30 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>0</v>
@@ -1191,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,30 +1196,30 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,25 +1227,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,25 +1253,25 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,48 +1279,48 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{D27D171E-A7DD-4086-9CEF-2543CB046404}"/>
-    <hyperlink ref="H16" r:id="rId2" xr:uid="{573800CF-EBE1-4DE1-AB29-777D645FBB9E}"/>
-    <hyperlink ref="H22" r:id="rId3" xr:uid="{85889004-117B-4B24-96AE-91951DF7D499}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{E273DF20-1358-4328-B0E0-7CF34924E2DC}"/>
-    <hyperlink ref="H19" r:id="rId5" xr:uid="{46D97A35-A445-4786-A772-9D6DDEDE6B36}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{F05FA79A-949D-424F-BAE7-1B376DB28F66}"/>
-    <hyperlink ref="H18" r:id="rId7" xr:uid="{B6E8F3CA-B8AE-49F5-B8EC-844F75FE39C6}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{F220998A-B339-4E82-B321-B37479663389}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{11FDCF1A-AA17-464A-BA72-3708E136CBC6}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{D373F3EB-EB78-4C6A-87EE-EE12F384F310}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{88C1CC2F-A895-459D-891B-1EE3E210B729}"/>
-    <hyperlink ref="H14" r:id="rId12" xr:uid="{0A954BA8-2D8F-4A65-83AE-877E95204B8B}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{3BEB84FC-F969-4427-ACEB-EA6176B63A45}"/>
-    <hyperlink ref="H23" r:id="rId14" xr:uid="{AC1BA071-E684-4BE8-86F7-42510862010D}"/>
-    <hyperlink ref="H24" r:id="rId15" xr:uid="{65BAB170-ADB6-4BDF-A2B1-5AD38D91A55B}"/>
-    <hyperlink ref="H8" r:id="rId16" xr:uid="{2ABA0E59-9B3E-4625-B936-92658ECF347B}"/>
-    <hyperlink ref="H9" r:id="rId17" xr:uid="{66683D9D-EBD9-456C-97FA-B97B67715C0E}"/>
-    <hyperlink ref="H10" r:id="rId18" xr:uid="{2B06D4AB-9AB0-4C6B-AE23-61F7518CD3A4}"/>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{85889004-117B-4B24-96AE-91951DF7D499}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{E273DF20-1358-4328-B0E0-7CF34924E2DC}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{46D97A35-A445-4786-A772-9D6DDEDE6B36}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{F05FA79A-949D-424F-BAE7-1B376DB28F66}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{B6E8F3CA-B8AE-49F5-B8EC-844F75FE39C6}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{F220998A-B339-4E82-B321-B37479663389}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{11FDCF1A-AA17-464A-BA72-3708E136CBC6}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{D373F3EB-EB78-4C6A-87EE-EE12F384F310}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{88C1CC2F-A895-459D-891B-1EE3E210B729}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{0A954BA8-2D8F-4A65-83AE-877E95204B8B}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{3BEB84FC-F969-4427-ACEB-EA6176B63A45}"/>
+    <hyperlink ref="H23" r:id="rId12" xr:uid="{AC1BA071-E684-4BE8-86F7-42510862010D}"/>
+    <hyperlink ref="H24" r:id="rId13" xr:uid="{65BAB170-ADB6-4BDF-A2B1-5AD38D91A55B}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{2ABA0E59-9B3E-4625-B936-92658ECF347B}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{66683D9D-EBD9-456C-97FA-B97B67715C0E}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{2B06D4AB-9AB0-4C6B-AE23-61F7518CD3A4}"/>
+    <hyperlink ref="H16" r:id="rId17" xr:uid="{4444F4E5-9D2D-4957-B615-6716CFAEEDDA}"/>
+    <hyperlink ref="H17" r:id="rId18" xr:uid="{B223BF62-71E4-4537-88F5-FA6AA0ADC43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
